--- a/Universal_Driver_hard/Universal_Driver v3_ft/Project Outputs for tester/BOM/Bill of Materials-tester.xlsx
+++ b/Universal_Driver_hard/Universal_Driver v3_ft/Project Outputs for tester/BOM/Bill of Materials-tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Universal_Driver\Universal_Driver_hard\Universal_Driver v3_ft\Project Outputs for tester\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C7912E-13BC-46B8-906E-C38277887B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE0A636-AA70-4420-8781-4DB798A2688D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{3E42C89E-630B-46FE-A56A-D8E2370A97DB}"/>
+    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{E398E9B4-8904-411C-8405-A39472B48E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-tester" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Comment</t>
   </si>
@@ -59,12 +59,6 @@
     <t>XP2</t>
   </si>
   <si>
-    <t>uart</t>
-  </si>
-  <si>
-    <t>XP1</t>
-  </si>
-  <si>
     <t>25Mhz</t>
   </si>
   <si>
@@ -86,7 +80,22 @@
     <t>PLS-5</t>
   </si>
   <si>
-    <t>X1</t>
+    <t>X1, X4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LM1117MPX-3.3</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>VD1, VD2, VD3</t>
+  </si>
+  <si>
+    <t>0805</t>
   </si>
   <si>
     <t>AM26LV32IDR</t>
@@ -101,16 +110,10 @@
     <t>U3</t>
   </si>
   <si>
-    <t>ACS712ELCTR-05B-T</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>0603 0</t>
-  </si>
-  <si>
-    <t>R84</t>
+    <t>SW-DIP4</t>
+  </si>
+  <si>
+    <t>S1, S2</t>
   </si>
   <si>
     <t>0603 220 Ом</t>
@@ -119,13 +122,10 @@
     <t>R82, R83</t>
   </si>
   <si>
-    <t>0603 NC</t>
-  </si>
-  <si>
-    <t>R72</t>
-  </si>
-  <si>
-    <t>R71</t>
+    <t>0805 3,9K</t>
+  </si>
+  <si>
+    <t>R65, R67, R69</t>
   </si>
   <si>
     <t>0603 1,5k</t>
@@ -152,226 +152,199 @@
     <t>R37, R38, R40, R43</t>
   </si>
   <si>
+    <t>0603 50R</t>
+  </si>
+  <si>
+    <t>R28, R29, R30, R31</t>
+  </si>
+  <si>
+    <t>0402 10 k</t>
+  </si>
+  <si>
+    <t>R19, R21, R23, R27, R54, R56, R57, R58, R61, R62, R63, R64, R66, R68, R70</t>
+  </si>
+  <si>
+    <t>0805 100 Om</t>
+  </si>
+  <si>
+    <t>R18, R20, R22, R26</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>R13, R14, R15</t>
+  </si>
+  <si>
+    <t>0805 100R - 510R</t>
+  </si>
+  <si>
+    <t>R12, R55</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R9, R24, R25, R84, R85, R86, R87, R88</t>
+  </si>
+  <si>
+    <t>0805 10 k</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0402 NC</t>
+  </si>
+  <si>
+    <t>R4, R5, R8, R10, R11, R17, R32, R34, R35, R44, R73, R75, R76, R78, R79, R81</t>
+  </si>
+  <si>
+    <t>0402 0</t>
+  </si>
+  <si>
+    <t>R3, R7, R16, R33, R42, R74, R77, R80</t>
+  </si>
+  <si>
+    <t>0603 1k</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0603 3k</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>PC814</t>
+  </si>
+  <si>
+    <t>OK1, OK2, OK3, OK4, OK5, OK6, OK7</t>
+  </si>
+  <si>
+    <t>SRR1208-6R5ML</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>HR911105A</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>LAN8742A-CZ-TR</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>GD25Q16CTIGR</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>GD25Q16CT</t>
+  </si>
+  <si>
+    <t>15EDGRC-3.5-16P</t>
+  </si>
+  <si>
+    <t>DG1</t>
+  </si>
+  <si>
+    <t>LM2596S-ADJ</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>0805 Green</t>
+  </si>
+  <si>
+    <t>MBRS540T3G</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>0603 0.1uF</t>
+  </si>
+  <si>
+    <t>TECAP B 10u 16V</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>0603 1uF</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C25, C26</t>
+  </si>
+  <si>
+    <t>Cap T</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>0603 0.001uF</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>0805 2.2uF</t>
+  </si>
+  <si>
+    <t>C14, C21</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>R36, R47, R48, R49, R50, R51</t>
-  </si>
-  <si>
-    <t>0603 50R</t>
-  </si>
-  <si>
-    <t>R28, R29, R30, R31</t>
-  </si>
-  <si>
-    <t>0402 10 k</t>
-  </si>
-  <si>
-    <t>R19, R21, R23, R27, R52, R53, R54, R56, R57, R58, R59, R60, R61, R62, R63, R64, R66, R68, R70</t>
-  </si>
-  <si>
-    <t>0805 100 Om</t>
-  </si>
-  <si>
-    <t>R18, R20, R22, R26</t>
-  </si>
-  <si>
-    <t>0805 3,9K</t>
-  </si>
-  <si>
-    <t>R13, R14, R15, R65, R67, R69</t>
-  </si>
-  <si>
-    <t>0805 100R - 510R</t>
-  </si>
-  <si>
-    <t>R12, R55</t>
-  </si>
-  <si>
-    <t>0805 0</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>0805 10 k</t>
-  </si>
-  <si>
-    <t>R6, R24, R25</t>
-  </si>
-  <si>
-    <t>0402 NC</t>
-  </si>
-  <si>
-    <t>R4, R5, R8, R10, R11, R17, R32, R34, R35, R44, R73, R75, R76, R78, R79, R81</t>
-  </si>
-  <si>
-    <t>0402 0</t>
-  </si>
-  <si>
-    <t>R3, R7, R16, R33, R42, R74, R77, R80</t>
-  </si>
-  <si>
-    <t>0603 1k</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>0603 3k</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>PC814</t>
-  </si>
-  <si>
-    <t>OK1, OK2, OK3, OK4, OK5, OK6, OK7</t>
-  </si>
-  <si>
-    <t>SRR1208-6R5ML</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>HR911105A</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>TB003-500-P12BE</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Винтовой</t>
-  </si>
-  <si>
-    <t>TB003-500-P06BE</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Degson</t>
-  </si>
-  <si>
-    <t>TB003-500-P02BE</t>
-  </si>
-  <si>
-    <t>J3, J4</t>
-  </si>
-  <si>
-    <t>LAN8742A-CZ-TR</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>GD25Q16CTIGR</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>GD25Q16CT</t>
-  </si>
-  <si>
-    <t>LM2596S-ADJ</t>
-  </si>
-  <si>
-    <t>DD1</t>
-  </si>
-  <si>
-    <t>150141M173100</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>RGB</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>0805 Green</t>
-  </si>
-  <si>
-    <t>MBRS540T3G</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>0603 0.1uF</t>
-  </si>
-  <si>
-    <t>TECAP B 10u 16V</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>0603 1uF</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C25, C26</t>
-  </si>
-  <si>
-    <t>Cap T</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>0805 2.2uF</t>
-  </si>
-  <si>
-    <t>C14, C21</t>
-  </si>
-  <si>
-    <t>0603 0.001uF</t>
-  </si>
-  <si>
-    <t>C9, C18</t>
-  </si>
-  <si>
-    <t>C4, C10, C11, C12, C13, C16, C19, C20, C22, C23, C27, C28, C29, C30, C36, C37</t>
-  </si>
-  <si>
-    <t>220uF 50v</t>
-  </si>
-  <si>
-    <t>C3, C5</t>
-  </si>
-  <si>
-    <t>10x13 220uF, 220uF</t>
+    <t>C9, C10</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>Cap C</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>4.7 uF</t>
+  </si>
+  <si>
+    <t>C4, C11, C12, C13, C16, C19, C20, C22, C23, C27, C28, C29, C30, C36, C37</t>
+  </si>
+  <si>
+    <t>EEEFK1V471SV</t>
+  </si>
+  <si>
+    <t>C3, C8</t>
   </si>
   <si>
     <t>0603 18 пФ</t>
   </si>
   <si>
     <t>C1, C2, C6, C7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ADP122AUJZ-3.3-R7</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -754,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F828B7A9-E94F-446C-8D2C-28285F9935B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42EDEE5-632F-4442-8103-2ECE46298505}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -827,13 +800,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -841,67 +814,69 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
       <c r="D7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -909,27 +884,25 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -937,55 +910,55 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -993,235 +966,235 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1229,24 +1202,22 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>74</v>
@@ -1257,27 +1228,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1285,13 +1256,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1299,13 +1270,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1313,16 +1284,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1333,7 +1304,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1341,13 +1312,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1355,58 +1326,58 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,7 +1388,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -1434,82 +1405,12 @@
         <v>102</v>
       </c>
       <c r="D48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="4">
         <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Universal_Driver_hard/Universal_Driver v3_ft/Project Outputs for tester/BOM/Bill of Materials-tester.xlsx
+++ b/Universal_Driver_hard/Universal_Driver v3_ft/Project Outputs for tester/BOM/Bill of Materials-tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Universal_Driver\Universal_Driver_hard\Universal_Driver v3_ft\Project Outputs for tester\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE0A636-AA70-4420-8781-4DB798A2688D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD79F73-ED4A-41A2-9C75-CD550D1C2861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{E398E9B4-8904-411C-8405-A39472B48E75}"/>
+    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{3784D467-4B62-44F2-934C-62F270660BCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-tester" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Comment</t>
   </si>
@@ -92,7 +92,7 @@
     <t>VR1</t>
   </si>
   <si>
-    <t>VD1, VD2, VD3</t>
+    <t>VD1, VD2, VD3, VD4</t>
   </si>
   <si>
     <t>0805</t>
@@ -170,7 +170,7 @@
     <t>R18, R20, R22, R26</t>
   </si>
   <si>
-    <t>3K</t>
+    <t>0603 3K</t>
   </si>
   <si>
     <t>R13, R14, R15</t>
@@ -182,7 +182,7 @@
     <t>R12, R55</t>
   </si>
   <si>
-    <t>10K</t>
+    <t>0402 10K</t>
   </si>
   <si>
     <t>R9, R24, R25, R84, R85, R86, R87, R88</t>
@@ -263,15 +263,6 @@
     <t>DD1</t>
   </si>
   <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>0805 Green</t>
-  </si>
-  <si>
     <t>MBRS540T3G</t>
   </si>
   <si>
@@ -329,7 +320,7 @@
     <t>C5</t>
   </si>
   <si>
-    <t>4.7 uF</t>
+    <t>1812 4.7 uF</t>
   </si>
   <si>
     <t>C4, C11, C12, C13, C16, C19, C20, C22, C23, C27, C28, C29, C30, C36, C37</t>
@@ -727,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42EDEE5-632F-4442-8103-2ECE46298505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07555F8-487F-457F-BDC4-D617337CF0D5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,7 +842,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,7 +1239,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1256,13 +1247,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1270,41 +1261,41 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1312,27 +1303,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
@@ -1349,68 +1340,54 @@
         <v>95</v>
       </c>
       <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="4">
-        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D47" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>